--- a/Leetcode DSA sheet by Fraz.xlsx
+++ b/Leetcode DSA sheet by Fraz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE4CA71-58B3-4B0F-9953-82388B31CAB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37DCD16B-46FC-443F-92D5-AE33644DF355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="444">
   <si>
     <r>
       <rPr>
@@ -2556,7 +2556,7 @@
   <dimension ref="A1:Z964"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2902,7 +2902,9 @@
       <c r="Z11" s="1"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>443</v>
+      </c>
       <c r="B12" s="6" t="s">
         <v>11</v>
       </c>

--- a/Leetcode DSA sheet by Fraz.xlsx
+++ b/Leetcode DSA sheet by Fraz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37DCD16B-46FC-443F-92D5-AE33644DF355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A25C77-D4F0-4849-8AE6-133A614EF4AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="444">
   <si>
     <r>
       <rPr>
@@ -2556,7 +2556,7 @@
   <dimension ref="A1:Z964"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2936,7 +2936,9 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>443</v>
+      </c>
       <c r="B13" s="6" t="s">
         <v>13</v>
       </c>
@@ -3000,7 +3002,9 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>443</v>
+      </c>
       <c r="B15" s="6" t="s">
         <v>17</v>
       </c>
@@ -3032,7 +3036,9 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>443</v>
+      </c>
       <c r="B16" s="6" t="s">
         <v>19</v>
       </c>
@@ -3064,7 +3070,9 @@
       <c r="Z16" s="1"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
+      <c r="A17" s="1" t="s">
+        <v>443</v>
+      </c>
       <c r="B17" s="6" t="s">
         <v>21</v>
       </c>
@@ -3096,7 +3104,9 @@
       <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
+      <c r="A18" s="1" t="s">
+        <v>443</v>
+      </c>
       <c r="B18" s="6" t="s">
         <v>23</v>
       </c>

--- a/Leetcode DSA sheet by Fraz.xlsx
+++ b/Leetcode DSA sheet by Fraz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A25C77-D4F0-4849-8AE6-133A614EF4AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B5AC71-58C8-4C65-9D3A-72B6D4E048E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="444">
   <si>
     <r>
       <rPr>
@@ -2556,7 +2556,7 @@
   <dimension ref="A1:Z964"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2970,15 +2970,17 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>443</v>
+      </c>
       <c r="B14" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -3006,10 +3008,10 @@
         <v>443</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -3040,13 +3042,13 @@
         <v>443</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -3074,12 +3076,12 @@
         <v>443</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="8"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -3108,13 +3110,13 @@
         <v>443</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D18" s="8"/>
-      <c r="E18" s="1"/>
+      <c r="E18" s="8"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -3138,15 +3140,17 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
+      <c r="A19" s="1" t="s">
+        <v>443</v>
+      </c>
       <c r="B19" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -3170,15 +3174,17 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
+      <c r="A20" s="1" t="s">
+        <v>443</v>
+      </c>
       <c r="B20" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -3203,14 +3209,10 @@
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -3263,7 +3265,9 @@
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
+      <c r="B23" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -3291,10 +3295,12 @@
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="1"/>
+      <c r="B24" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -3322,10 +3328,10 @@
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>33</v>
+        <v>15</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -30531,393 +30537,393 @@
     <hyperlink ref="C12" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
     <hyperlink ref="B13" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
     <hyperlink ref="C13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="B14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="C14" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="B15" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="C15" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="B16" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="C16" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="B17" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="C17" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="B18" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="C18" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="B19" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="C19" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="B20" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="C20" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="B21" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="C21" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="B25" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="C25" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="B26" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="C26" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="B27" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="C27" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="B28" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="C28" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="B29" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="C29" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="B30" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="B31" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="B32" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="B33" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="B34" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="B35" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="B36" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="B37" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="B38" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="C38" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="B39" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="B40" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="C40" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="B41" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="C41" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="B42" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="B43" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="B44" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="B45" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="B46" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="B47" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="C47" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="B48" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="B49" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="B50" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="B52" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="B53" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="B54" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="B55" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="C55" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="B56" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="C56" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="C59" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="C60" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="C61" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="B62" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="C62" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="B63" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="C63" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="C64" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="B65" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="C65" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="B66" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="C66" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="B67" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="C67" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="B68" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="C68" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="B69" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="C69" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="B70" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="C70" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="B71" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="C71" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="B72" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="C72" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="B73" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="C73" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="B74" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="C74" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="B75" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="C75" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="B76" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="C76" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="B77" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="C77" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="C78" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="B79" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="C79" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="B83" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="B84" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="B85" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="C85" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="B86" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="B89" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="C89" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="B90" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="C90" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="B91" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="B92" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="B93" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="B94" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="B95" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="B96" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="B97" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="C97" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="B98" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="B99" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="B100" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="B101" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="B102" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="B103" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="B104" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="B107" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="B108" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="B109" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="B110" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="B111" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="B112" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="B113" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="B114" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="B115" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="C115" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="B116" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="B117" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="B118" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="B119" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="B120" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="B121" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="B125" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="B126" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="B127" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="B128" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="B129" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="B132" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="B133" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="B134" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="B136" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="C136" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="B137" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="B138" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="B139" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="B140" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="B141" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="B142" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="B145" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="B146" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="B147" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="B148" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="B149" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="B150" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="B151" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="B155" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="B156" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="B157" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="B158" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="B159" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="C159" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="B160" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="B161" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="B162" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="B163" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="B166" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="B167" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="B168" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="B169" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="B170" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="B171" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="B172" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="B175" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="B176" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="B177" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="B178" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="B185" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="B186" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="B187" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="B188" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="B189" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="B190" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="B191" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
-    <hyperlink ref="B192" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
-    <hyperlink ref="B195" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
-    <hyperlink ref="B196" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="B197" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
-    <hyperlink ref="B201" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
-    <hyperlink ref="B202" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
-    <hyperlink ref="B203" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
-    <hyperlink ref="B204" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
-    <hyperlink ref="B205" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="B206" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
-    <hyperlink ref="B207" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="B208" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
-    <hyperlink ref="B209" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
-    <hyperlink ref="B212" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="B213" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="B214" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
-    <hyperlink ref="B215" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="B216" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
-    <hyperlink ref="B217" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="B218" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="B219" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
-    <hyperlink ref="B223" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="B224" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
-    <hyperlink ref="B225" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
-    <hyperlink ref="B226" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="B227" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="B228" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
-    <hyperlink ref="B229" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
-    <hyperlink ref="B230" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
-    <hyperlink ref="B231" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
-    <hyperlink ref="B232" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
-    <hyperlink ref="B233" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
-    <hyperlink ref="B234" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
-    <hyperlink ref="B235" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
-    <hyperlink ref="B236" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="B237" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
-    <hyperlink ref="B238" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="B241" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
-    <hyperlink ref="B242" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="B243" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="B244" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
-    <hyperlink ref="B245" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
-    <hyperlink ref="B246" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="B247" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
-    <hyperlink ref="B248" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
-    <hyperlink ref="B249" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="B250" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
-    <hyperlink ref="B251" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
-    <hyperlink ref="B252" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
-    <hyperlink ref="B253" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
-    <hyperlink ref="B254" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
-    <hyperlink ref="B255" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
-    <hyperlink ref="B256" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
-    <hyperlink ref="B257" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
-    <hyperlink ref="B258" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
-    <hyperlink ref="B261" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
-    <hyperlink ref="B262" r:id="rId255" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
-    <hyperlink ref="B263" r:id="rId256" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
-    <hyperlink ref="B264" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
-    <hyperlink ref="B265" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
-    <hyperlink ref="B266" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
-    <hyperlink ref="B267" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
-    <hyperlink ref="B271" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
-    <hyperlink ref="B272" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
-    <hyperlink ref="B275" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
-    <hyperlink ref="B276" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
-    <hyperlink ref="B280" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
-    <hyperlink ref="B281" r:id="rId266" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
-    <hyperlink ref="B282" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
-    <hyperlink ref="B283" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
-    <hyperlink ref="B286" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
-    <hyperlink ref="B287" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
-    <hyperlink ref="B288" r:id="rId271" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
-    <hyperlink ref="B289" r:id="rId272" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
-    <hyperlink ref="B290" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
-    <hyperlink ref="B291" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
-    <hyperlink ref="B292" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
-    <hyperlink ref="B293" r:id="rId276" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
-    <hyperlink ref="B294" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
-    <hyperlink ref="B297" r:id="rId278" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
-    <hyperlink ref="B298" r:id="rId279" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
-    <hyperlink ref="B299" r:id="rId280" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
-    <hyperlink ref="B300" r:id="rId281" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
-    <hyperlink ref="B301" r:id="rId282" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
-    <hyperlink ref="B305" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
-    <hyperlink ref="B306" r:id="rId284" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
-    <hyperlink ref="B307" r:id="rId285" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
-    <hyperlink ref="B308" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
-    <hyperlink ref="B309" r:id="rId287" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
-    <hyperlink ref="B312" r:id="rId288" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
-    <hyperlink ref="B313" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
-    <hyperlink ref="B314" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
-    <hyperlink ref="B315" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
-    <hyperlink ref="B319" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
-    <hyperlink ref="B320" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
-    <hyperlink ref="B321" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
-    <hyperlink ref="B322" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
-    <hyperlink ref="B323" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
-    <hyperlink ref="B327" r:id="rId297" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
-    <hyperlink ref="B328" r:id="rId298" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
-    <hyperlink ref="C328" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
-    <hyperlink ref="B329" r:id="rId300" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
-    <hyperlink ref="B330" r:id="rId301" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
-    <hyperlink ref="C331" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
-    <hyperlink ref="B332" r:id="rId303" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
-    <hyperlink ref="B335" r:id="rId304" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
-    <hyperlink ref="B336" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
-    <hyperlink ref="B337" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
-    <hyperlink ref="B338" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
-    <hyperlink ref="B339" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
-    <hyperlink ref="B340" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
-    <hyperlink ref="C340" r:id="rId310" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
-    <hyperlink ref="B341" r:id="rId311" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
-    <hyperlink ref="B345" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
-    <hyperlink ref="B346" r:id="rId313" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
-    <hyperlink ref="B347" r:id="rId314" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
-    <hyperlink ref="B348" r:id="rId315" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
-    <hyperlink ref="B349" r:id="rId316" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
-    <hyperlink ref="B350" r:id="rId317" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
-    <hyperlink ref="B351" r:id="rId318" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
-    <hyperlink ref="B355" r:id="rId319" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
-    <hyperlink ref="B356" r:id="rId320" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
-    <hyperlink ref="B359" r:id="rId321" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
-    <hyperlink ref="B360" r:id="rId322" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
-    <hyperlink ref="B361" r:id="rId323" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
-    <hyperlink ref="B362" r:id="rId324" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
-    <hyperlink ref="B363" r:id="rId325" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
-    <hyperlink ref="B364" r:id="rId326" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
-    <hyperlink ref="B365" r:id="rId327" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
-    <hyperlink ref="B366" r:id="rId328" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
-    <hyperlink ref="B367" r:id="rId329" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
-    <hyperlink ref="B368" r:id="rId330" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
-    <hyperlink ref="B369" r:id="rId331" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
-    <hyperlink ref="B370" r:id="rId332" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
-    <hyperlink ref="B371" r:id="rId333" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
-    <hyperlink ref="B372" r:id="rId334" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
-    <hyperlink ref="B375" r:id="rId335" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
-    <hyperlink ref="C379" r:id="rId336" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
-    <hyperlink ref="C380" r:id="rId337" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
-    <hyperlink ref="B381" r:id="rId338" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
-    <hyperlink ref="C381" r:id="rId339" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
-    <hyperlink ref="C382" r:id="rId340" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
-    <hyperlink ref="B383" r:id="rId341" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
-    <hyperlink ref="C383" r:id="rId342" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
-    <hyperlink ref="B384" r:id="rId343" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
-    <hyperlink ref="C384" r:id="rId344" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
-    <hyperlink ref="C385" r:id="rId345" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
-    <hyperlink ref="B386" r:id="rId346" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
-    <hyperlink ref="C386" r:id="rId347" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
-    <hyperlink ref="B387" r:id="rId348" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
-    <hyperlink ref="C387" r:id="rId349" xr:uid="{00000000-0004-0000-0000-00005C010000}"/>
-    <hyperlink ref="B388" r:id="rId350" xr:uid="{00000000-0004-0000-0000-00005D010000}"/>
-    <hyperlink ref="C388" r:id="rId351" xr:uid="{00000000-0004-0000-0000-00005E010000}"/>
-    <hyperlink ref="B389" r:id="rId352" xr:uid="{00000000-0004-0000-0000-00005F010000}"/>
-    <hyperlink ref="C389" r:id="rId353" xr:uid="{00000000-0004-0000-0000-000060010000}"/>
-    <hyperlink ref="C390" r:id="rId354" xr:uid="{00000000-0004-0000-0000-000061010000}"/>
-    <hyperlink ref="B391" r:id="rId355" xr:uid="{00000000-0004-0000-0000-000062010000}"/>
-    <hyperlink ref="C391" r:id="rId356" xr:uid="{00000000-0004-0000-0000-000063010000}"/>
-    <hyperlink ref="B392" r:id="rId357" xr:uid="{00000000-0004-0000-0000-000064010000}"/>
-    <hyperlink ref="C392" r:id="rId358" xr:uid="{00000000-0004-0000-0000-000065010000}"/>
-    <hyperlink ref="B393" r:id="rId359" xr:uid="{00000000-0004-0000-0000-000066010000}"/>
-    <hyperlink ref="C393" r:id="rId360" xr:uid="{00000000-0004-0000-0000-000067010000}"/>
-    <hyperlink ref="B394" r:id="rId361" xr:uid="{00000000-0004-0000-0000-000068010000}"/>
-    <hyperlink ref="C394" r:id="rId362" xr:uid="{00000000-0004-0000-0000-000069010000}"/>
-    <hyperlink ref="B395" r:id="rId363" xr:uid="{00000000-0004-0000-0000-00006A010000}"/>
-    <hyperlink ref="C395" r:id="rId364" xr:uid="{00000000-0004-0000-0000-00006B010000}"/>
-    <hyperlink ref="B396" r:id="rId365" xr:uid="{00000000-0004-0000-0000-00006C010000}"/>
-    <hyperlink ref="C396" r:id="rId366" xr:uid="{00000000-0004-0000-0000-00006D010000}"/>
-    <hyperlink ref="B397" r:id="rId367" xr:uid="{00000000-0004-0000-0000-00006E010000}"/>
-    <hyperlink ref="C397" r:id="rId368" xr:uid="{00000000-0004-0000-0000-00006F010000}"/>
-    <hyperlink ref="B398" r:id="rId369" xr:uid="{00000000-0004-0000-0000-000070010000}"/>
-    <hyperlink ref="C398" r:id="rId370" xr:uid="{00000000-0004-0000-0000-000071010000}"/>
-    <hyperlink ref="B399" r:id="rId371" xr:uid="{00000000-0004-0000-0000-000072010000}"/>
-    <hyperlink ref="C399" r:id="rId372" xr:uid="{00000000-0004-0000-0000-000073010000}"/>
-    <hyperlink ref="C400" r:id="rId373" xr:uid="{00000000-0004-0000-0000-000074010000}"/>
-    <hyperlink ref="B401" r:id="rId374" xr:uid="{00000000-0004-0000-0000-000075010000}"/>
-    <hyperlink ref="C401" r:id="rId375" xr:uid="{00000000-0004-0000-0000-000076010000}"/>
-    <hyperlink ref="C402" r:id="rId376" xr:uid="{00000000-0004-0000-0000-000077010000}"/>
-    <hyperlink ref="B406" r:id="rId377" xr:uid="{00000000-0004-0000-0000-000078010000}"/>
-    <hyperlink ref="B407" r:id="rId378" xr:uid="{00000000-0004-0000-0000-000079010000}"/>
-    <hyperlink ref="B408" r:id="rId379" xr:uid="{00000000-0004-0000-0000-00007A010000}"/>
-    <hyperlink ref="B409" r:id="rId380" xr:uid="{00000000-0004-0000-0000-00007B010000}"/>
-    <hyperlink ref="B410" r:id="rId381" xr:uid="{00000000-0004-0000-0000-00007C010000}"/>
-    <hyperlink ref="B411" r:id="rId382" xr:uid="{00000000-0004-0000-0000-00007D010000}"/>
-    <hyperlink ref="B412" r:id="rId383" xr:uid="{00000000-0004-0000-0000-00007E010000}"/>
-    <hyperlink ref="B413" r:id="rId384" xr:uid="{00000000-0004-0000-0000-00007F010000}"/>
-    <hyperlink ref="B416" r:id="rId385" xr:uid="{00000000-0004-0000-0000-000080010000}"/>
-    <hyperlink ref="B417" r:id="rId386" xr:uid="{00000000-0004-0000-0000-000081010000}"/>
-    <hyperlink ref="B418" r:id="rId387" xr:uid="{00000000-0004-0000-0000-000082010000}"/>
-    <hyperlink ref="B419" r:id="rId388" xr:uid="{00000000-0004-0000-0000-000083010000}"/>
-    <hyperlink ref="B420" r:id="rId389" xr:uid="{00000000-0004-0000-0000-000084010000}"/>
-    <hyperlink ref="B421" r:id="rId390" xr:uid="{00000000-0004-0000-0000-000085010000}"/>
-    <hyperlink ref="B422" r:id="rId391" xr:uid="{00000000-0004-0000-0000-000086010000}"/>
-    <hyperlink ref="B423" r:id="rId392" xr:uid="{00000000-0004-0000-0000-000087010000}"/>
-    <hyperlink ref="B424" r:id="rId393" xr:uid="{00000000-0004-0000-0000-000088010000}"/>
-    <hyperlink ref="B428" r:id="rId394" xr:uid="{00000000-0004-0000-0000-000089010000}"/>
-    <hyperlink ref="B429" r:id="rId395" xr:uid="{00000000-0004-0000-0000-00008A010000}"/>
-    <hyperlink ref="B430" r:id="rId396" xr:uid="{00000000-0004-0000-0000-00008B010000}"/>
-    <hyperlink ref="B431" r:id="rId397" xr:uid="{00000000-0004-0000-0000-00008C010000}"/>
-    <hyperlink ref="B434" r:id="rId398" xr:uid="{00000000-0004-0000-0000-00008D010000}"/>
-    <hyperlink ref="B436" r:id="rId399" xr:uid="{00000000-0004-0000-0000-00008E010000}"/>
+    <hyperlink ref="B25" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C25" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B14" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C14" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B15" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C15" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B16" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C16" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B17" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="C17" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="B18" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="C18" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="B19" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="C19" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="B20" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="C20" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="B26" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="C26" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="B27" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="C27" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="B28" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="C28" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="B29" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="C29" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="B30" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="B31" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="B32" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="B33" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="B34" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="B35" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="B36" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="B37" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="B38" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="C38" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="B39" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="B40" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="C40" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="B41" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="C41" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="B42" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="B43" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="B44" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="B45" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="B46" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="B47" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="C47" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="B48" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="B49" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="B50" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="B52" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="B53" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="B54" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="B55" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="C55" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="B56" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="C56" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="C59" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="C60" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="C61" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="B62" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="C62" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="B63" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="C63" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="C64" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="B65" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="C65" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="B66" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="C66" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="B67" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="C67" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="B68" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="C68" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="B69" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="C69" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="B70" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="C70" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="B71" r:id="rId89" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="C71" r:id="rId90" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="B72" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="C72" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="B73" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="C73" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="B74" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="C74" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="B75" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="C75" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="B76" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="C76" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="B77" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="C77" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="C78" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="B79" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="C79" r:id="rId105" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="B83" r:id="rId106" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="B84" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="B85" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="C85" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="B86" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="B89" r:id="rId111" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="C89" r:id="rId112" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="B90" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="C90" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="B91" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="B92" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="B93" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="B94" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="B95" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="B96" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="B97" r:id="rId121" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="C97" r:id="rId122" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="B98" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="B99" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="B100" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="B101" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="B102" r:id="rId127" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="B103" r:id="rId128" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="B104" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="B107" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="B108" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="B109" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="B110" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="B111" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="B112" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="B113" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="B114" r:id="rId137" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="B115" r:id="rId138" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="C115" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="B116" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="B117" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="B118" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="B119" r:id="rId143" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="B120" r:id="rId144" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="B121" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="B125" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="B126" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="B127" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="B128" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="B129" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="B132" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="B133" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="B134" r:id="rId153" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="B136" r:id="rId154" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="C136" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="B137" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="B138" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="B139" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="B140" r:id="rId159" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="B141" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="B142" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="B145" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="B146" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="B147" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="B148" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="B149" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="B150" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="B151" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="B155" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="B156" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="B157" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="B158" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="B159" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="C159" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="B160" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="B161" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="B162" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="B163" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="B166" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="B167" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="B168" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="B169" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="B170" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="B171" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="B172" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="B175" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="B176" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="B177" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="B178" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="B185" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="B186" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="B187" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="B188" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="B189" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="B190" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="B191" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="B192" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="B195" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="B196" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="B197" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="B201" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="B202" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="B203" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="B204" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="B205" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="B206" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="B207" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="B208" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="B209" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="B212" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="B213" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="B214" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="B215" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="B216" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="B217" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="B218" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="B219" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="B223" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="B224" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="B225" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="B226" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="B227" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="B228" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="B229" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="B230" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="B231" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="B232" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="B233" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="B234" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="B235" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="B236" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="B237" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="B238" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="B241" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="B242" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="B243" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="B244" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="B245" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="B246" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="B247" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="B248" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="B249" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="B250" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="B251" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="B252" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="B253" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="B254" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="B255" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="B256" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="B257" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="B258" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="B261" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="B262" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="B263" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="B264" r:id="rId255" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="B265" r:id="rId256" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="B266" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="B267" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="B271" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="B272" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="B275" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="B276" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="B280" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="B281" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="B282" r:id="rId265" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="B283" r:id="rId266" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="B286" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
+    <hyperlink ref="B287" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
+    <hyperlink ref="B288" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
+    <hyperlink ref="B289" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
+    <hyperlink ref="B290" r:id="rId271" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
+    <hyperlink ref="B291" r:id="rId272" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
+    <hyperlink ref="B292" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
+    <hyperlink ref="B293" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
+    <hyperlink ref="B294" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
+    <hyperlink ref="B297" r:id="rId276" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
+    <hyperlink ref="B298" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
+    <hyperlink ref="B299" r:id="rId278" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
+    <hyperlink ref="B300" r:id="rId279" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
+    <hyperlink ref="B301" r:id="rId280" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
+    <hyperlink ref="B305" r:id="rId281" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
+    <hyperlink ref="B306" r:id="rId282" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
+    <hyperlink ref="B307" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
+    <hyperlink ref="B308" r:id="rId284" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
+    <hyperlink ref="B309" r:id="rId285" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
+    <hyperlink ref="B312" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
+    <hyperlink ref="B313" r:id="rId287" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
+    <hyperlink ref="B314" r:id="rId288" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
+    <hyperlink ref="B315" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
+    <hyperlink ref="B319" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
+    <hyperlink ref="B320" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
+    <hyperlink ref="B321" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
+    <hyperlink ref="B322" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
+    <hyperlink ref="B323" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
+    <hyperlink ref="B327" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
+    <hyperlink ref="B328" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
+    <hyperlink ref="C328" r:id="rId297" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
+    <hyperlink ref="B329" r:id="rId298" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
+    <hyperlink ref="B330" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
+    <hyperlink ref="C331" r:id="rId300" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
+    <hyperlink ref="B332" r:id="rId301" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
+    <hyperlink ref="B335" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
+    <hyperlink ref="B336" r:id="rId303" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
+    <hyperlink ref="B337" r:id="rId304" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
+    <hyperlink ref="B338" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
+    <hyperlink ref="B339" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
+    <hyperlink ref="B340" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
+    <hyperlink ref="C340" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
+    <hyperlink ref="B341" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
+    <hyperlink ref="B345" r:id="rId310" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
+    <hyperlink ref="B346" r:id="rId311" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
+    <hyperlink ref="B347" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
+    <hyperlink ref="B348" r:id="rId313" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
+    <hyperlink ref="B349" r:id="rId314" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
+    <hyperlink ref="B350" r:id="rId315" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
+    <hyperlink ref="B351" r:id="rId316" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
+    <hyperlink ref="B355" r:id="rId317" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
+    <hyperlink ref="B356" r:id="rId318" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
+    <hyperlink ref="B359" r:id="rId319" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
+    <hyperlink ref="B360" r:id="rId320" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
+    <hyperlink ref="B361" r:id="rId321" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
+    <hyperlink ref="B362" r:id="rId322" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
+    <hyperlink ref="B363" r:id="rId323" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
+    <hyperlink ref="B364" r:id="rId324" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
+    <hyperlink ref="B365" r:id="rId325" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
+    <hyperlink ref="B366" r:id="rId326" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
+    <hyperlink ref="B367" r:id="rId327" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
+    <hyperlink ref="B368" r:id="rId328" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
+    <hyperlink ref="B369" r:id="rId329" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
+    <hyperlink ref="B370" r:id="rId330" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
+    <hyperlink ref="B371" r:id="rId331" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
+    <hyperlink ref="B372" r:id="rId332" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
+    <hyperlink ref="B375" r:id="rId333" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
+    <hyperlink ref="C379" r:id="rId334" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
+    <hyperlink ref="C380" r:id="rId335" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
+    <hyperlink ref="B381" r:id="rId336" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
+    <hyperlink ref="C381" r:id="rId337" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
+    <hyperlink ref="C382" r:id="rId338" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
+    <hyperlink ref="B383" r:id="rId339" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
+    <hyperlink ref="C383" r:id="rId340" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
+    <hyperlink ref="B384" r:id="rId341" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
+    <hyperlink ref="C384" r:id="rId342" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
+    <hyperlink ref="C385" r:id="rId343" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
+    <hyperlink ref="B386" r:id="rId344" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
+    <hyperlink ref="C386" r:id="rId345" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
+    <hyperlink ref="B387" r:id="rId346" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
+    <hyperlink ref="C387" r:id="rId347" xr:uid="{00000000-0004-0000-0000-00005C010000}"/>
+    <hyperlink ref="B388" r:id="rId348" xr:uid="{00000000-0004-0000-0000-00005D010000}"/>
+    <hyperlink ref="C388" r:id="rId349" xr:uid="{00000000-0004-0000-0000-00005E010000}"/>
+    <hyperlink ref="B389" r:id="rId350" xr:uid="{00000000-0004-0000-0000-00005F010000}"/>
+    <hyperlink ref="C389" r:id="rId351" xr:uid="{00000000-0004-0000-0000-000060010000}"/>
+    <hyperlink ref="C390" r:id="rId352" xr:uid="{00000000-0004-0000-0000-000061010000}"/>
+    <hyperlink ref="B391" r:id="rId353" xr:uid="{00000000-0004-0000-0000-000062010000}"/>
+    <hyperlink ref="C391" r:id="rId354" xr:uid="{00000000-0004-0000-0000-000063010000}"/>
+    <hyperlink ref="B392" r:id="rId355" xr:uid="{00000000-0004-0000-0000-000064010000}"/>
+    <hyperlink ref="C392" r:id="rId356" xr:uid="{00000000-0004-0000-0000-000065010000}"/>
+    <hyperlink ref="B393" r:id="rId357" xr:uid="{00000000-0004-0000-0000-000066010000}"/>
+    <hyperlink ref="C393" r:id="rId358" xr:uid="{00000000-0004-0000-0000-000067010000}"/>
+    <hyperlink ref="B394" r:id="rId359" xr:uid="{00000000-0004-0000-0000-000068010000}"/>
+    <hyperlink ref="C394" r:id="rId360" xr:uid="{00000000-0004-0000-0000-000069010000}"/>
+    <hyperlink ref="B395" r:id="rId361" xr:uid="{00000000-0004-0000-0000-00006A010000}"/>
+    <hyperlink ref="C395" r:id="rId362" xr:uid="{00000000-0004-0000-0000-00006B010000}"/>
+    <hyperlink ref="B396" r:id="rId363" xr:uid="{00000000-0004-0000-0000-00006C010000}"/>
+    <hyperlink ref="C396" r:id="rId364" xr:uid="{00000000-0004-0000-0000-00006D010000}"/>
+    <hyperlink ref="B397" r:id="rId365" xr:uid="{00000000-0004-0000-0000-00006E010000}"/>
+    <hyperlink ref="C397" r:id="rId366" xr:uid="{00000000-0004-0000-0000-00006F010000}"/>
+    <hyperlink ref="B398" r:id="rId367" xr:uid="{00000000-0004-0000-0000-000070010000}"/>
+    <hyperlink ref="C398" r:id="rId368" xr:uid="{00000000-0004-0000-0000-000071010000}"/>
+    <hyperlink ref="B399" r:id="rId369" xr:uid="{00000000-0004-0000-0000-000072010000}"/>
+    <hyperlink ref="C399" r:id="rId370" xr:uid="{00000000-0004-0000-0000-000073010000}"/>
+    <hyperlink ref="C400" r:id="rId371" xr:uid="{00000000-0004-0000-0000-000074010000}"/>
+    <hyperlink ref="B401" r:id="rId372" xr:uid="{00000000-0004-0000-0000-000075010000}"/>
+    <hyperlink ref="C401" r:id="rId373" xr:uid="{00000000-0004-0000-0000-000076010000}"/>
+    <hyperlink ref="C402" r:id="rId374" xr:uid="{00000000-0004-0000-0000-000077010000}"/>
+    <hyperlink ref="B406" r:id="rId375" xr:uid="{00000000-0004-0000-0000-000078010000}"/>
+    <hyperlink ref="B407" r:id="rId376" xr:uid="{00000000-0004-0000-0000-000079010000}"/>
+    <hyperlink ref="B408" r:id="rId377" xr:uid="{00000000-0004-0000-0000-00007A010000}"/>
+    <hyperlink ref="B409" r:id="rId378" xr:uid="{00000000-0004-0000-0000-00007B010000}"/>
+    <hyperlink ref="B410" r:id="rId379" xr:uid="{00000000-0004-0000-0000-00007C010000}"/>
+    <hyperlink ref="B411" r:id="rId380" xr:uid="{00000000-0004-0000-0000-00007D010000}"/>
+    <hyperlink ref="B412" r:id="rId381" xr:uid="{00000000-0004-0000-0000-00007E010000}"/>
+    <hyperlink ref="B413" r:id="rId382" xr:uid="{00000000-0004-0000-0000-00007F010000}"/>
+    <hyperlink ref="B416" r:id="rId383" xr:uid="{00000000-0004-0000-0000-000080010000}"/>
+    <hyperlink ref="B417" r:id="rId384" xr:uid="{00000000-0004-0000-0000-000081010000}"/>
+    <hyperlink ref="B418" r:id="rId385" xr:uid="{00000000-0004-0000-0000-000082010000}"/>
+    <hyperlink ref="B419" r:id="rId386" xr:uid="{00000000-0004-0000-0000-000083010000}"/>
+    <hyperlink ref="B420" r:id="rId387" xr:uid="{00000000-0004-0000-0000-000084010000}"/>
+    <hyperlink ref="B421" r:id="rId388" xr:uid="{00000000-0004-0000-0000-000085010000}"/>
+    <hyperlink ref="B422" r:id="rId389" xr:uid="{00000000-0004-0000-0000-000086010000}"/>
+    <hyperlink ref="B423" r:id="rId390" xr:uid="{00000000-0004-0000-0000-000087010000}"/>
+    <hyperlink ref="B424" r:id="rId391" xr:uid="{00000000-0004-0000-0000-000088010000}"/>
+    <hyperlink ref="B428" r:id="rId392" xr:uid="{00000000-0004-0000-0000-000089010000}"/>
+    <hyperlink ref="B429" r:id="rId393" xr:uid="{00000000-0004-0000-0000-00008A010000}"/>
+    <hyperlink ref="B430" r:id="rId394" xr:uid="{00000000-0004-0000-0000-00008B010000}"/>
+    <hyperlink ref="B431" r:id="rId395" xr:uid="{00000000-0004-0000-0000-00008C010000}"/>
+    <hyperlink ref="B434" r:id="rId396" xr:uid="{00000000-0004-0000-0000-00008D010000}"/>
+    <hyperlink ref="B436" r:id="rId397" xr:uid="{00000000-0004-0000-0000-00008E010000}"/>
+    <hyperlink ref="C24" r:id="rId398" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="B24" r:id="rId399" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId400"/>

--- a/Leetcode DSA sheet by Fraz.xlsx
+++ b/Leetcode DSA sheet by Fraz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B5AC71-58C8-4C65-9D3A-72B6D4E048E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B875F52E-A9CB-4A2E-87ED-EFC0B5F256CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="444">
   <si>
     <r>
       <rPr>
@@ -2556,7 +2556,7 @@
   <dimension ref="A1:Z964"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="B126" sqref="B126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3294,7 +3294,9 @@
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
+      <c r="A24" s="1" t="s">
+        <v>443</v>
+      </c>
       <c r="B24" s="6" t="s">
         <v>32</v>
       </c>
@@ -6390,7 +6392,9 @@
       <c r="Z124" s="1"/>
     </row>
     <row r="125" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A125" s="1"/>
+      <c r="A125" s="1" t="s">
+        <v>443</v>
+      </c>
       <c r="B125" s="6" t="s">
         <v>160</v>
       </c>

--- a/Leetcode DSA sheet by Fraz.xlsx
+++ b/Leetcode DSA sheet by Fraz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B875F52E-A9CB-4A2E-87ED-EFC0B5F256CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517CADD5-A6A7-45D4-A65D-2830DA88461D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="444">
   <si>
     <r>
       <rPr>
@@ -2555,8 +2555,8 @@
   </sheetPr>
   <dimension ref="A1:Z964"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B126" sqref="B126"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3328,7 +3328,9 @@
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
+      <c r="A25" s="1" t="s">
+        <v>443</v>
+      </c>
       <c r="B25" s="6" t="s">
         <v>15</v>
       </c>

--- a/Leetcode DSA sheet by Fraz.xlsx
+++ b/Leetcode DSA sheet by Fraz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517CADD5-A6A7-45D4-A65D-2830DA88461D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06105833-2133-4D8A-ADB0-1B37C003CCB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="444">
   <si>
     <r>
       <rPr>
@@ -2555,8 +2555,8 @@
   </sheetPr>
   <dimension ref="A1:Z964"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3362,7 +3362,9 @@
       <c r="Z25" s="1"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
+      <c r="A26" s="1" t="s">
+        <v>443</v>
+      </c>
       <c r="B26" s="6" t="s">
         <v>34</v>
       </c>
@@ -3394,7 +3396,9 @@
       <c r="Z26" s="1"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
+      <c r="A27" s="1" t="s">
+        <v>443</v>
+      </c>
       <c r="B27" s="6" t="s">
         <v>36</v>
       </c>

--- a/Leetcode DSA sheet by Fraz.xlsx
+++ b/Leetcode DSA sheet by Fraz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06105833-2133-4D8A-ADB0-1B37C003CCB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B20AE9-A16E-4653-98CB-69CFF244B280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="444">
   <si>
     <r>
       <rPr>
@@ -2556,7 +2556,7 @@
   <dimension ref="A1:Z964"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3462,7 +3462,9 @@
       <c r="Z28" s="1"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
+      <c r="A29" s="1" t="s">
+        <v>443</v>
+      </c>
       <c r="B29" s="6" t="s">
         <v>40</v>
       </c>
